--- a/testes.xlsx
+++ b/testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\Inteligência artificial\Exercicio_8\Perceptron-for-diabetes-disease\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kendy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1D6176-B802-4F86-95E1-38C4B7EAB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADB541-E7B5-4694-B7F6-B8B78F8A125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="4170" windowWidth="17745" windowHeight="11910" xr2:uid="{64B36D91-8CB4-4910-9EFE-7CFF778CB6A7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18090" windowHeight="9060" xr2:uid="{64B36D91-8CB4-4910-9EFE-7CFF778CB6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
         <v>137</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>74</v>
@@ -715,10 +715,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
